--- a/Resultados/SSACCURACY_LOCAL_AGGS.xlsx
+++ b/Resultados/SSACCURACY_LOCAL_AGGS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/davdelbej_alum_us_es/Documents/TFM/Experimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{98B3BF89-0B0E-784C-8231-7731D06DE3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE17B248-DCC0-4A40-A710-2EC476A75A2A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{98B3BF89-0B0E-784C-8231-7731D06DE3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0606A816-096C-E548-9CD3-24AD1C4CD9F9}"/>
   <bookViews>
     <workbookView xWindow="25640" yWindow="500" windowWidth="25180" windowHeight="16440" xr2:uid="{AAD371DE-C89E-4A47-ACCD-C7025FEAC737}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>AGG3</t>
   </si>
@@ -582,6 +582,39 @@
   </si>
   <si>
     <t>tmc2007_500_30</t>
+  </si>
+  <si>
+    <t>AGG0</t>
+  </si>
+  <si>
+    <t>Corel5k</t>
+  </si>
+  <si>
+    <t>20NG</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>mediamill</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>slashdot</t>
+  </si>
+  <si>
+    <t>Human_PseAAc</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>tmc2007_500</t>
   </si>
 </sst>
 </file>
@@ -599,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,11 +679,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,6 +700,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897DDC7C-020E-304E-AE1A-52F21A57A1AD}">
-  <dimension ref="D6:G185"/>
+  <dimension ref="D6:N185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126:E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.191468</v>
       </c>
       <c r="F8" s="1">
         <v>0.19833000000000001</v>
@@ -1034,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.25224200000000002</v>
       </c>
       <c r="F9" s="1">
         <v>0.176395</v>
@@ -1048,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.17806</v>
       </c>
       <c r="F10" s="1">
         <v>0.165021</v>
@@ -1062,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.16506699999999999</v>
       </c>
       <c r="F11" s="1">
         <v>0.165265</v>
@@ -1076,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.24258399999999999</v>
       </c>
       <c r="F12" s="1">
         <v>0.274673</v>
@@ -1090,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.24449000000000001</v>
       </c>
       <c r="F13" s="1">
         <v>0.236904</v>
@@ -1104,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.41149400000000003</v>
       </c>
       <c r="F14" s="1">
         <v>0.39344099999999999</v>
@@ -1118,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.25434200000000001</v>
       </c>
       <c r="F15" s="1">
         <v>0.27799299999999999</v>
@@ -1132,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.15221399999999999</v>
       </c>
       <c r="F16" s="1">
         <v>0.258079</v>
@@ -1141,12 +1185,12 @@
         <v>0.21065700000000001</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.23092699999999999</v>
       </c>
       <c r="F17" s="1">
         <v>0.25988099999999997</v>
@@ -1155,12 +1199,12 @@
         <v>0.260407</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.19347600000000001</v>
       </c>
       <c r="F18" s="1">
         <v>0.19350300000000001</v>
@@ -1169,12 +1213,12 @@
         <v>0.17046500000000001</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.183749</v>
       </c>
       <c r="F19" s="1">
         <v>0.198934</v>
@@ -1183,12 +1227,12 @@
         <v>0.19894800000000001</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.166966</v>
       </c>
       <c r="F20" s="1">
         <v>0.189772</v>
@@ -1197,12 +1241,12 @@
         <v>0.15995899999999999</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.153807</v>
       </c>
       <c r="F21" s="1">
         <v>0.168186</v>
@@ -1211,12 +1255,12 @@
         <v>0.161574</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.17127100000000001</v>
       </c>
       <c r="F22" s="1">
         <v>0.16936699999999999</v>
@@ -1225,12 +1269,12 @@
         <v>0.17219300000000001</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.24284800000000001</v>
       </c>
       <c r="F23" s="1">
         <v>0.231379</v>
@@ -1239,12 +1283,12 @@
         <v>0.210734</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.21202699999999999</v>
       </c>
       <c r="F24" s="1">
         <v>0.16864000000000001</v>
@@ -1253,12 +1297,12 @@
         <v>0.138151</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.236539</v>
       </c>
       <c r="F25" s="1">
         <v>0.176148</v>
@@ -1267,12 +1311,12 @@
         <v>0.13231599999999999</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.17022100000000001</v>
       </c>
       <c r="F26" s="1">
         <v>0.18970100000000001</v>
@@ -1281,12 +1325,12 @@
         <v>0.17819599999999999</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.128415</v>
       </c>
       <c r="F27" s="1">
         <v>0.15937399999999999</v>
@@ -1295,12 +1339,12 @@
         <v>0.106075</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.15404200000000001</v>
       </c>
       <c r="F28" s="1">
         <v>0.13791300000000001</v>
@@ -1309,12 +1353,12 @@
         <v>7.6249999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.17344999999999999</v>
       </c>
       <c r="F29" s="1">
         <v>0.161325</v>
@@ -1323,12 +1367,12 @@
         <v>0.16333500000000001</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.31630399999999997</v>
       </c>
       <c r="F30" s="1">
         <v>0.28189199999999998</v>
@@ -1336,13 +1380,22 @@
       <c r="G30" s="1">
         <v>0.245251</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.25709700000000002</v>
       </c>
       <c r="F31" s="1">
         <v>0.19273000000000001</v>
@@ -1350,13 +1403,25 @@
       <c r="G31" s="1">
         <v>0.20855399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31">
+        <v>0.217</v>
+      </c>
+      <c r="M31">
+        <v>0.2132</v>
+      </c>
+      <c r="N31">
+        <v>0.2208</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.22209899999999999</v>
       </c>
       <c r="F32" s="1">
         <v>0.20859</v>
@@ -1364,13 +1429,25 @@
       <c r="G32" s="1">
         <v>0.203461</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32">
+        <v>0.7913</v>
+      </c>
+      <c r="M32">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="N32">
+        <v>0.76549999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.184307</v>
       </c>
       <c r="F33" s="1">
         <v>3.3760999999999999E-2</v>
@@ -1378,13 +1455,25 @@
       <c r="G33" s="1">
         <v>0.183116</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="M33">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="N33">
+        <v>0.57850000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.170962</v>
       </c>
       <c r="F34" s="1">
         <v>0.21675</v>
@@ -1392,13 +1481,25 @@
       <c r="G34" s="1">
         <v>0.15893599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L34">
+        <v>0.245</v>
+      </c>
+      <c r="M34">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.32919999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.24521799999999999</v>
       </c>
       <c r="F35" s="1">
         <v>0.20852499999999999</v>
@@ -1406,13 +1507,25 @@
       <c r="G35" s="1">
         <v>0.24920100000000001</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35">
+        <v>0.6048</v>
+      </c>
+      <c r="M35">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="N35">
+        <v>0.60589999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.33011699999999999</v>
       </c>
       <c r="F36" s="1">
         <v>0.31118099999999999</v>
@@ -1420,13 +1533,25 @@
       <c r="G36" s="1">
         <v>0.35624</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36">
+        <v>0.6653</v>
+      </c>
+      <c r="M36">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="N36">
+        <v>0.66469999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.23878199999999999</v>
       </c>
       <c r="F37" s="1">
         <v>0.172069</v>
@@ -1434,13 +1559,25 @@
       <c r="G37" s="1">
         <v>0.17554500000000001</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K37" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="M37">
+        <v>0.4088</v>
+      </c>
+      <c r="N37">
+        <v>0.37490000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.72439399999999998</v>
       </c>
       <c r="F38" s="1">
         <v>0.65502300000000002</v>
@@ -1448,13 +1585,25 @@
       <c r="G38" s="1">
         <v>0.63995500000000005</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="M38">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="N38">
+        <v>0.58840000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.63575999999999999</v>
       </c>
       <c r="F39" s="1">
         <v>0.64038300000000004</v>
@@ -1462,13 +1611,25 @@
       <c r="G39" s="1">
         <v>0.57607299999999995</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L39">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="M39">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="N39">
+        <v>0.74670000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.657721</v>
       </c>
       <c r="F40" s="1">
         <v>0.656779</v>
@@ -1476,13 +1637,25 @@
       <c r="G40" s="1">
         <v>0.62941800000000003</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="K40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="M40">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="N40">
+        <v>0.74160000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79207399999999994</v>
       </c>
       <c r="F41" s="1">
         <v>0.81406400000000001</v>
@@ -1491,12 +1664,12 @@
         <v>0.78899900000000001</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.70519299999999996</v>
       </c>
       <c r="F42" s="1">
         <v>0.68560299999999996</v>
@@ -1505,12 +1678,12 @@
         <v>0.69678899999999999</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79400400000000004</v>
       </c>
       <c r="F43" s="1">
         <v>0.77431099999999997</v>
@@ -1519,12 +1692,12 @@
         <v>0.74347399999999997</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67761199999999999</v>
       </c>
       <c r="F44" s="1">
         <v>0.67868600000000001</v>
@@ -1533,12 +1706,12 @@
         <v>0.65509899999999999</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.73773500000000003</v>
       </c>
       <c r="F45" s="1">
         <v>0.74784499999999998</v>
@@ -1547,12 +1720,12 @@
         <v>0.73779600000000001</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.58497600000000005</v>
       </c>
       <c r="F46" s="1">
         <v>0.58640599999999998</v>
@@ -1561,12 +1734,12 @@
         <v>0.58599699999999999</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.68506500000000004</v>
       </c>
       <c r="F47" s="1">
         <v>0.67649700000000001</v>
@@ -1575,12 +1748,12 @@
         <v>0.68837000000000004</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.538219</v>
       </c>
       <c r="F48" s="1">
         <v>0.40056000000000003</v>
@@ -1594,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="E49" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.59292400000000001</v>
       </c>
       <c r="F49" s="1">
         <v>0.57865599999999995</v>
@@ -1608,7 +1781,7 @@
         <v>46</v>
       </c>
       <c r="E50" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.63555600000000001</v>
       </c>
       <c r="F50" s="1">
         <v>0.63555600000000001</v>
@@ -1622,7 +1795,7 @@
         <v>47</v>
       </c>
       <c r="E51" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.678979</v>
       </c>
       <c r="F51" s="1">
         <v>0.65710400000000002</v>
@@ -1636,7 +1809,7 @@
         <v>48</v>
       </c>
       <c r="E52" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.42839899999999997</v>
       </c>
       <c r="F52" s="1">
         <v>0.41545700000000002</v>
@@ -1650,7 +1823,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.62359500000000001</v>
       </c>
       <c r="F53" s="1">
         <v>0.62609000000000004</v>
@@ -1664,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="E54" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.52013399999999999</v>
       </c>
       <c r="F54" s="1">
         <v>0.56034499999999998</v>
@@ -1678,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="E55" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.54442000000000002</v>
       </c>
       <c r="F55" s="1">
         <v>0.58786099999999997</v>
@@ -1692,7 +1865,7 @@
         <v>52</v>
       </c>
       <c r="E56" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.56001599999999996</v>
       </c>
       <c r="F56" s="1">
         <v>0.56766899999999998</v>
@@ -1706,7 +1879,7 @@
         <v>53</v>
       </c>
       <c r="E57" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.55756899999999998</v>
       </c>
       <c r="F57" s="1">
         <v>0.58167999999999997</v>
@@ -1720,7 +1893,7 @@
         <v>54</v>
       </c>
       <c r="E58" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67019099999999998</v>
       </c>
       <c r="F58" s="1">
         <v>0.680975</v>
@@ -1734,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="E59" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.478798</v>
       </c>
       <c r="F59" s="1">
         <v>0.51648400000000005</v>
@@ -1748,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="E60" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.65934400000000004</v>
       </c>
       <c r="F60" s="1">
         <v>0.60596000000000005</v>
@@ -1762,7 +1935,7 @@
         <v>57</v>
       </c>
       <c r="E61" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67167200000000005</v>
       </c>
       <c r="F61" s="1">
         <v>0.58587400000000001</v>
@@ -1776,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="E62" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.70228400000000002</v>
       </c>
       <c r="F62" s="1">
         <v>0.590665</v>
@@ -1790,7 +1963,7 @@
         <v>59</v>
       </c>
       <c r="E63" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.59623300000000001</v>
       </c>
       <c r="F63" s="1">
         <v>0.61165999999999998</v>
@@ -1804,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.56593199999999999</v>
       </c>
       <c r="F64" s="1">
         <v>0.56504200000000004</v>
@@ -1818,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="E65" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.678288</v>
       </c>
       <c r="F65" s="1">
         <v>0.57822099999999998</v>
@@ -1832,7 +2005,7 @@
         <v>62</v>
       </c>
       <c r="E66" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60175500000000004</v>
       </c>
       <c r="F66" s="1">
         <v>0.53693100000000005</v>
@@ -1846,7 +2019,7 @@
         <v>63</v>
       </c>
       <c r="E67" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.55469400000000002</v>
       </c>
       <c r="F67" s="1">
         <v>0.67276100000000005</v>
@@ -1860,7 +2033,7 @@
         <v>64</v>
       </c>
       <c r="E68" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.62688200000000005</v>
       </c>
       <c r="F68" s="1">
         <v>0.60027699999999995</v>
@@ -1874,7 +2047,7 @@
         <v>65</v>
       </c>
       <c r="E69" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.63993699999999998</v>
       </c>
       <c r="F69" s="1">
         <v>0.65800899999999996</v>
@@ -1888,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="E70" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.47232499999999999</v>
       </c>
       <c r="F70" s="1">
         <v>0.57318100000000005</v>
@@ -1902,7 +2075,7 @@
         <v>67</v>
       </c>
       <c r="E71" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.469661</v>
       </c>
       <c r="F71" s="1">
         <v>0.489398</v>
@@ -1916,7 +2089,7 @@
         <v>68</v>
       </c>
       <c r="E72" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.55896800000000002</v>
       </c>
       <c r="F72" s="1">
         <v>0.60202</v>
@@ -1930,7 +2103,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.49468699999999999</v>
       </c>
       <c r="F73" s="1">
         <v>0.48813699999999999</v>
@@ -1944,7 +2117,7 @@
         <v>70</v>
       </c>
       <c r="E74" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.63274799999999998</v>
       </c>
       <c r="F74" s="1">
         <v>0.61380500000000005</v>
@@ -1958,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.642517</v>
       </c>
       <c r="F75" s="1">
         <v>0.62680100000000005</v>
@@ -1972,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="E76" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.24706</v>
       </c>
       <c r="F76" s="1">
         <v>0.30395299999999997</v>
@@ -1986,7 +2159,7 @@
         <v>73</v>
       </c>
       <c r="E77" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.30916300000000002</v>
       </c>
       <c r="F77" s="1">
         <v>0.27750000000000002</v>
@@ -2000,7 +2173,7 @@
         <v>74</v>
       </c>
       <c r="E78" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.25849</v>
       </c>
       <c r="F78" s="1">
         <v>0.26355699999999999</v>
@@ -2014,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="E79" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.32011099999999998</v>
       </c>
       <c r="F79" s="1">
         <v>0.34780899999999998</v>
@@ -2028,7 +2201,7 @@
         <v>76</v>
       </c>
       <c r="E80" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.265486</v>
       </c>
       <c r="F80" s="1">
         <v>0.203542</v>
@@ -2042,7 +2215,7 @@
         <v>77</v>
       </c>
       <c r="E81" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.48004799999999997</v>
       </c>
       <c r="F81" s="1">
         <v>0.48004799999999997</v>
@@ -2056,7 +2229,7 @@
         <v>78</v>
       </c>
       <c r="E82" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.49969400000000003</v>
       </c>
       <c r="F82" s="1">
         <v>0.45881300000000003</v>
@@ -2070,7 +2243,7 @@
         <v>79</v>
       </c>
       <c r="E83" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.63756599999999997</v>
       </c>
       <c r="F83" s="1">
         <v>0.46523150000000002</v>
@@ -2084,7 +2257,7 @@
         <v>80</v>
       </c>
       <c r="E84" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.508521</v>
       </c>
       <c r="F84" s="1">
         <v>0.46378200000000003</v>
@@ -2098,7 +2271,7 @@
         <v>81</v>
       </c>
       <c r="E85" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.609294</v>
       </c>
       <c r="F85" s="1">
         <v>0.62396300000000005</v>
@@ -2112,7 +2285,7 @@
         <v>82</v>
       </c>
       <c r="E86" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.66000599999999998</v>
       </c>
       <c r="F86" s="1">
         <v>0.65157299999999996</v>
@@ -2126,7 +2299,7 @@
         <v>83</v>
       </c>
       <c r="E87" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60103499999999999</v>
       </c>
       <c r="F87" s="1">
         <v>0.604715</v>
@@ -2140,7 +2313,7 @@
         <v>84</v>
       </c>
       <c r="E88" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.66475700000000004</v>
       </c>
       <c r="F88" s="1">
         <v>0.66269599999999995</v>
@@ -2154,7 +2327,7 @@
         <v>85</v>
       </c>
       <c r="E89" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.50631899999999996</v>
       </c>
       <c r="F89" s="1">
         <v>0.49748799999999999</v>
@@ -2168,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="E90" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.71025300000000002</v>
       </c>
       <c r="F90" s="1">
         <v>0.71025300000000002</v>
@@ -2182,7 +2355,7 @@
         <v>87</v>
       </c>
       <c r="E91" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.50005299999999997</v>
       </c>
       <c r="F91" s="1">
         <v>0.50005299999999997</v>
@@ -2196,7 +2369,7 @@
         <v>88</v>
       </c>
       <c r="E92" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.61434100000000003</v>
       </c>
       <c r="F92" s="1">
         <v>0.61434100000000003</v>
@@ -2210,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="E93" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.54972600000000005</v>
       </c>
       <c r="F93" s="1">
         <v>0.54972600000000005</v>
@@ -2224,7 +2397,7 @@
         <v>90</v>
       </c>
       <c r="E94" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.50093699999999997</v>
       </c>
       <c r="F94" s="1">
         <v>0.52752200000000005</v>
@@ -2238,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.62619899999999995</v>
       </c>
       <c r="F95" s="1">
         <v>0.62181399999999998</v>
@@ -2252,7 +2425,7 @@
         <v>92</v>
       </c>
       <c r="E96" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60396499999999997</v>
       </c>
       <c r="F96" s="1">
         <v>0.610541</v>
@@ -2266,7 +2439,7 @@
         <v>93</v>
       </c>
       <c r="E97" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.711368</v>
       </c>
       <c r="F97" s="1">
         <v>0.706368</v>
@@ -2280,7 +2453,7 @@
         <v>94</v>
       </c>
       <c r="E98" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.61428300000000002</v>
       </c>
       <c r="F98" s="1">
         <v>0.61708700000000005</v>
@@ -2294,7 +2467,7 @@
         <v>95</v>
       </c>
       <c r="E99" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.56595799999999996</v>
       </c>
       <c r="F99" s="1">
         <v>0.570886</v>
@@ -2308,7 +2481,7 @@
         <v>96</v>
       </c>
       <c r="E100" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60632200000000003</v>
       </c>
       <c r="F100" s="1">
         <v>0.60730099999999998</v>
@@ -2322,7 +2495,7 @@
         <v>97</v>
       </c>
       <c r="E101" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.66686900000000005</v>
       </c>
       <c r="F101" s="1">
         <v>0.66370499999999999</v>
@@ -2336,7 +2509,7 @@
         <v>98</v>
       </c>
       <c r="E102" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.55912200000000001</v>
       </c>
       <c r="F102" s="1">
         <v>0.55617499999999997</v>
@@ -2350,7 +2523,7 @@
         <v>99</v>
       </c>
       <c r="E103" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.65617800000000004</v>
       </c>
       <c r="F103" s="1">
         <v>0.63082199999999999</v>
@@ -2364,7 +2537,7 @@
         <v>100</v>
       </c>
       <c r="E104" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.62131700000000001</v>
       </c>
       <c r="F104" s="1">
         <v>0.63943499999999998</v>
@@ -2378,7 +2551,7 @@
         <v>101</v>
       </c>
       <c r="E105" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.57110399999999995</v>
       </c>
       <c r="F105" s="1">
         <v>0.57956099999999999</v>
@@ -2392,7 +2565,7 @@
         <v>102</v>
       </c>
       <c r="E106" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60278399999999999</v>
       </c>
       <c r="F106" s="1">
         <v>0.60312200000000005</v>
@@ -2406,7 +2579,7 @@
         <v>103</v>
       </c>
       <c r="E107" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.51899600000000001</v>
       </c>
       <c r="F107" s="1">
         <v>0.52039000000000002</v>
@@ -2420,7 +2593,7 @@
         <v>104</v>
       </c>
       <c r="E108" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.60652099999999998</v>
       </c>
       <c r="F108" s="1">
         <v>0.597495</v>
@@ -2434,7 +2607,7 @@
         <v>105</v>
       </c>
       <c r="E109" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.66273400000000005</v>
       </c>
       <c r="F109" s="1">
         <v>0.660578</v>
@@ -2448,7 +2621,7 @@
         <v>106</v>
       </c>
       <c r="E110" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.57213000000000003</v>
       </c>
       <c r="F110" s="1">
         <v>0.53871199999999997</v>
@@ -2462,7 +2635,7 @@
         <v>107</v>
       </c>
       <c r="E111" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.69358799999999998</v>
       </c>
       <c r="F111" s="1">
         <v>0.670404</v>
@@ -2476,7 +2649,7 @@
         <v>108</v>
       </c>
       <c r="E112" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.64381699999999997</v>
       </c>
       <c r="F112" s="1">
         <v>0.66679999999999995</v>
@@ -2490,7 +2663,7 @@
         <v>109</v>
       </c>
       <c r="E113" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.69202600000000003</v>
       </c>
       <c r="F113" s="1">
         <v>0.70731999999999995</v>
@@ -2504,7 +2677,7 @@
         <v>110</v>
       </c>
       <c r="E114" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.71574899999999997</v>
       </c>
       <c r="F114" s="1">
         <v>0.69630800000000004</v>
@@ -2518,7 +2691,7 @@
         <v>111</v>
       </c>
       <c r="E115" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67921500000000001</v>
       </c>
       <c r="F115" s="1">
         <v>0.679705</v>
@@ -2532,7 +2705,7 @@
         <v>112</v>
       </c>
       <c r="E116" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.51243399999999995</v>
       </c>
       <c r="F116" s="1">
         <v>0.53832899999999995</v>
@@ -2546,7 +2719,7 @@
         <v>113</v>
       </c>
       <c r="E117" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.54354199999999997</v>
       </c>
       <c r="F117" s="1">
         <v>0.52523699999999995</v>
@@ -2560,7 +2733,7 @@
         <v>114</v>
       </c>
       <c r="E118" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.18473600000000001</v>
       </c>
       <c r="F118" s="1">
         <v>0.54744700000000002</v>
@@ -2574,7 +2747,7 @@
         <v>115</v>
       </c>
       <c r="E119" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.33116899999999999</v>
       </c>
       <c r="F119" s="1">
         <v>0.208677</v>
@@ -2588,7 +2761,7 @@
         <v>116</v>
       </c>
       <c r="E120" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.41767199999999999</v>
       </c>
       <c r="F120" s="1">
         <v>0.30451800000000001</v>
@@ -2602,7 +2775,7 @@
         <v>117</v>
       </c>
       <c r="E121" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.64058199999999998</v>
       </c>
       <c r="F121" s="1">
         <v>0.64058199999999998</v>
@@ -2616,7 +2789,7 @@
         <v>118</v>
       </c>
       <c r="E122" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.37731700000000001</v>
       </c>
       <c r="F122" s="1">
         <v>0.37731700000000001</v>
@@ -2630,7 +2803,7 @@
         <v>119</v>
       </c>
       <c r="E123" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.59059399999999995</v>
       </c>
       <c r="F123" s="1">
         <v>0.59059399999999995</v>
@@ -2644,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="E124" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.61469499999999999</v>
       </c>
       <c r="F124" s="1">
         <v>0.61469499999999999</v>
@@ -2658,7 +2831,7 @@
         <v>121</v>
       </c>
       <c r="E125" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.65844599999999998</v>
       </c>
       <c r="F125" s="1">
         <v>0.65844599999999998</v>
@@ -2672,7 +2845,7 @@
         <v>122</v>
       </c>
       <c r="E126" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.78327199999999997</v>
       </c>
       <c r="F126" s="1">
         <v>0.78312899999999996</v>
@@ -2686,7 +2859,7 @@
         <v>123</v>
       </c>
       <c r="E127" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.74672000000000005</v>
       </c>
       <c r="F127" s="1">
         <v>0.73356100000000002</v>
@@ -2700,7 +2873,7 @@
         <v>124</v>
       </c>
       <c r="E128" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.81735500000000005</v>
       </c>
       <c r="F128" s="1">
         <v>0.81652899999999995</v>
@@ -2714,7 +2887,7 @@
         <v>125</v>
       </c>
       <c r="E129" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.83521100000000004</v>
       </c>
       <c r="F129" s="1">
         <v>0.80837099999999995</v>
@@ -2728,7 +2901,7 @@
         <v>126</v>
       </c>
       <c r="E130" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79628100000000002</v>
       </c>
       <c r="F130" s="1">
         <v>0.80619799999999997</v>
@@ -2742,7 +2915,7 @@
         <v>127</v>
       </c>
       <c r="E131" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.690303</v>
       </c>
       <c r="F131" s="1">
         <v>0.71837300000000004</v>
@@ -2756,7 +2929,7 @@
         <v>128</v>
       </c>
       <c r="E132" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.84961600000000004</v>
       </c>
       <c r="F132" s="1">
         <v>0.86321199999999998</v>
@@ -2770,7 +2943,7 @@
         <v>129</v>
       </c>
       <c r="E133" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.759023</v>
       </c>
       <c r="F133" s="1">
         <v>0.75040399999999996</v>
@@ -2784,7 +2957,7 @@
         <v>130</v>
       </c>
       <c r="E134" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.81188700000000003</v>
       </c>
       <c r="F134" s="1">
         <v>0.82454099999999997</v>
@@ -2798,7 +2971,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.81359599999999999</v>
       </c>
       <c r="F135" s="1">
         <v>0.82260299999999997</v>
@@ -2812,7 +2985,7 @@
         <v>132</v>
       </c>
       <c r="E136" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.83570699999999998</v>
       </c>
       <c r="F136" s="1">
         <v>0.81954800000000005</v>
@@ -2826,7 +2999,7 @@
         <v>133</v>
       </c>
       <c r="E137" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.84298600000000001</v>
       </c>
       <c r="F137" s="1">
         <v>0.83878399999999997</v>
@@ -2840,7 +3013,7 @@
         <v>134</v>
       </c>
       <c r="E138" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.80647599999999997</v>
       </c>
       <c r="F138" s="1">
         <v>0.80205099999999996</v>
@@ -2854,7 +3027,7 @@
         <v>135</v>
       </c>
       <c r="E139" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.77393500000000004</v>
       </c>
       <c r="F139" s="1">
         <v>0.773559</v>
@@ -2868,7 +3041,7 @@
         <v>136</v>
       </c>
       <c r="E140" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.83658299999999997</v>
       </c>
       <c r="F140" s="1">
         <v>0.82343500000000003</v>
@@ -2882,7 +3055,7 @@
         <v>137</v>
       </c>
       <c r="E141" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.81776899999999997</v>
       </c>
       <c r="F141" s="1">
         <v>0.83057899999999996</v>
@@ -2896,7 +3069,7 @@
         <v>138</v>
       </c>
       <c r="E142" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.82580900000000002</v>
       </c>
       <c r="F142" s="1">
         <v>0.79329499999999997</v>
@@ -2910,7 +3083,7 @@
         <v>139</v>
       </c>
       <c r="E143" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.80022700000000002</v>
       </c>
       <c r="F143" s="1">
         <v>0.80435900000000005</v>
@@ -2924,7 +3097,7 @@
         <v>140</v>
       </c>
       <c r="E144" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.80879599999999996</v>
       </c>
       <c r="F144" s="1">
         <v>0.80440999999999996</v>
@@ -2938,7 +3111,7 @@
         <v>141</v>
       </c>
       <c r="E145" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79803500000000005</v>
       </c>
       <c r="F145" s="1">
         <v>0.772173</v>
@@ -2952,7 +3125,7 @@
         <v>142</v>
       </c>
       <c r="E146" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.83243199999999995</v>
       </c>
       <c r="F146" s="1">
         <v>0.82808499999999996</v>
@@ -2966,7 +3139,7 @@
         <v>143</v>
       </c>
       <c r="E147" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.71074400000000004</v>
       </c>
       <c r="F147" s="1">
         <v>0.75616000000000005</v>
@@ -2980,7 +3153,7 @@
         <v>144</v>
       </c>
       <c r="E148" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.76816200000000001</v>
       </c>
       <c r="F148" s="1">
         <v>0.69431799999999999</v>
@@ -2994,7 +3167,7 @@
         <v>145</v>
       </c>
       <c r="E149" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.73473599999999994</v>
       </c>
       <c r="F149" s="1">
         <v>0.76142799999999999</v>
@@ -3008,7 +3181,7 @@
         <v>146</v>
       </c>
       <c r="E150" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.75933499999999998</v>
       </c>
       <c r="F150" s="1">
         <v>0.75973800000000002</v>
@@ -3022,7 +3195,7 @@
         <v>147</v>
       </c>
       <c r="E151" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.76509400000000005</v>
       </c>
       <c r="F151" s="1">
         <v>0.79253899999999999</v>
@@ -3036,7 +3209,7 @@
         <v>148</v>
       </c>
       <c r="E152" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.75033700000000003</v>
       </c>
       <c r="F152" s="1">
         <v>0.75033700000000003</v>
@@ -3050,7 +3223,7 @@
         <v>149</v>
       </c>
       <c r="E153" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.86666399999999999</v>
       </c>
       <c r="F153" s="1">
         <v>0.871637</v>
@@ -3064,7 +3237,7 @@
         <v>150</v>
       </c>
       <c r="E154" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.85820099999999999</v>
       </c>
       <c r="F154" s="1">
         <v>0.853854</v>
@@ -3078,7 +3251,7 @@
         <v>151</v>
       </c>
       <c r="E155" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.70658799999999999</v>
       </c>
       <c r="F155" s="1">
         <v>0.71994499999999995</v>
@@ -3092,7 +3265,7 @@
         <v>152</v>
       </c>
       <c r="E156" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79936399999999996</v>
       </c>
       <c r="F156" s="1">
         <v>0.79563200000000001</v>
@@ -3106,7 +3279,7 @@
         <v>153</v>
       </c>
       <c r="E157" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.76946199999999998</v>
       </c>
       <c r="F157" s="1">
         <v>0.72454600000000002</v>
@@ -3120,7 +3293,7 @@
         <v>154</v>
       </c>
       <c r="E158" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.774366</v>
       </c>
       <c r="F158" s="1">
         <v>0.78371299999999999</v>
@@ -3134,7 +3307,7 @@
         <v>155</v>
       </c>
       <c r="E159" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.82049300000000003</v>
       </c>
       <c r="F159" s="1">
         <v>0.79295700000000002</v>
@@ -3148,7 +3321,7 @@
         <v>156</v>
       </c>
       <c r="E160" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.74389499999999997</v>
       </c>
       <c r="F160" s="1">
         <v>0.75749</v>
@@ -3162,7 +3335,7 @@
         <v>157</v>
       </c>
       <c r="E161" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.76978500000000005</v>
       </c>
       <c r="F161" s="1">
         <v>0.75953000000000004</v>
@@ -3176,7 +3349,7 @@
         <v>158</v>
       </c>
       <c r="E162" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.73887000000000003</v>
       </c>
       <c r="F162" s="1">
         <v>0.71163799999999999</v>
@@ -3190,7 +3363,7 @@
         <v>159</v>
       </c>
       <c r="E163" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.83841699999999997</v>
       </c>
       <c r="F163" s="1">
         <v>0.82493099999999997</v>
@@ -3204,7 +3377,7 @@
         <v>160</v>
       </c>
       <c r="E164" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.82294999999999996</v>
       </c>
       <c r="F164" s="1">
         <v>0.79702499999999998</v>
@@ -3218,7 +3391,7 @@
         <v>161</v>
       </c>
       <c r="E165" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.82059400000000005</v>
       </c>
       <c r="F165" s="1">
         <v>0.79182799999999998</v>
@@ -3232,7 +3405,7 @@
         <v>162</v>
       </c>
       <c r="E166" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.70526900000000003</v>
       </c>
       <c r="F166" s="1">
         <v>0.68518500000000004</v>
@@ -3246,7 +3419,7 @@
         <v>163</v>
       </c>
       <c r="E167" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.75266200000000005</v>
       </c>
       <c r="F167" s="1">
         <v>0.75154200000000004</v>
@@ -3260,7 +3433,7 @@
         <v>164</v>
       </c>
       <c r="E168" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.781972</v>
       </c>
       <c r="F168" s="1">
         <v>0.75675000000000003</v>
@@ -3274,7 +3447,7 @@
         <v>165</v>
       </c>
       <c r="E169" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67637400000000003</v>
       </c>
       <c r="F169" s="1">
         <v>0.62626000000000004</v>
@@ -3288,7 +3461,7 @@
         <v>166</v>
       </c>
       <c r="E170" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.67926299999999995</v>
       </c>
       <c r="F170" s="1">
         <v>0.63170099999999996</v>
@@ -3302,7 +3475,7 @@
         <v>167</v>
       </c>
       <c r="E171" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.64955700000000005</v>
       </c>
       <c r="F171" s="1">
         <v>0.67329399999999995</v>
@@ -3316,7 +3489,7 @@
         <v>168</v>
       </c>
       <c r="E172" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.74440899999999999</v>
       </c>
       <c r="F172" s="1">
         <v>0.73475299999999999</v>
@@ -3330,7 +3503,7 @@
         <v>169</v>
       </c>
       <c r="E173" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.75543099999999996</v>
       </c>
       <c r="F173" s="1">
         <v>0.72510600000000003</v>
@@ -3344,7 +3517,7 @@
         <v>170</v>
       </c>
       <c r="E174" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.58335300000000001</v>
       </c>
       <c r="F174" s="1">
         <v>0.60646500000000003</v>
@@ -3358,7 +3531,7 @@
         <v>171</v>
       </c>
       <c r="E175" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.74392999999999998</v>
       </c>
       <c r="F175" s="1">
         <v>0.74536999999999998</v>
@@ -3372,7 +3545,7 @@
         <v>172</v>
       </c>
       <c r="E176" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.77800899999999995</v>
       </c>
       <c r="F176" s="1">
         <v>0.80102499999999999</v>
@@ -3386,7 +3559,7 @@
         <v>173</v>
       </c>
       <c r="E177" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79269800000000001</v>
       </c>
       <c r="F177" s="1">
         <v>0.75297199999999997</v>
@@ -3400,7 +3573,7 @@
         <v>174</v>
       </c>
       <c r="E178" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.72840899999999997</v>
       </c>
       <c r="F178" s="1">
         <v>0.72951299999999997</v>
@@ -3414,7 +3587,7 @@
         <v>175</v>
       </c>
       <c r="E179" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.69503800000000004</v>
       </c>
       <c r="F179" s="1">
         <v>0.690577</v>
@@ -3428,7 +3601,7 @@
         <v>176</v>
       </c>
       <c r="E180" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.69708199999999998</v>
       </c>
       <c r="F180" s="1">
         <v>0.70009399999999999</v>
@@ -3442,7 +3615,7 @@
         <v>177</v>
       </c>
       <c r="E181" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79939499999999997</v>
       </c>
       <c r="F181" s="1">
         <v>0.77383299999999999</v>
@@ -3456,7 +3629,7 @@
         <v>178</v>
       </c>
       <c r="E182" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.80068600000000001</v>
       </c>
       <c r="F182" s="1">
         <v>0.78079600000000005</v>
@@ -3470,7 +3643,7 @@
         <v>179</v>
       </c>
       <c r="E183" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.74709499999999995</v>
       </c>
       <c r="F183" s="1">
         <v>0.75324500000000005</v>
@@ -3484,7 +3657,7 @@
         <v>180</v>
       </c>
       <c r="E184" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.79602899999999999</v>
       </c>
       <c r="F184" s="1">
         <v>0.78637800000000002</v>
@@ -3498,7 +3671,7 @@
         <v>181</v>
       </c>
       <c r="E185" s="1">
-        <v>0.24326500000000001</v>
+        <v>0.80071800000000004</v>
       </c>
       <c r="F185" s="1">
         <v>0.80305700000000002</v>
